--- a/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
+++ b/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\FoTCAMRBtPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\FoTCAMRBtPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{262BBECA-DBAC-4DF4-936D-1C36E69BDFE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="52320" yWindow="1350" windowWidth="13725" windowHeight="14475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Canada Generation" sheetId="2" r:id="rId2"/>
     <sheet name="Canada Flexibility Shares" sheetId="3" r:id="rId3"/>
-    <sheet name="FoTCAMRBtPF" sheetId="4" r:id="rId4"/>
+    <sheet name="Texas Notes" sheetId="5" r:id="rId4"/>
+    <sheet name="FoTCAMRBtPF" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="88">
   <si>
     <t>FoTCAMRBtPF Fraction of Transmission Capacity Across Modeled Region Border that Provides Flexibility</t>
   </si>
@@ -283,11 +293,20 @@
   <si>
     <t>Transmission Capacity That Provides Flexibility (dimensionless)</t>
   </si>
+  <si>
+    <t>See EIaE (Electricity Imports and Exports) sheet for sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, Texas imports/exports a neglibible amount of energy. ERCOT is its own asynchronous grid and it covers the majority of Texas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, in the ERCOT case, there is basically 0 flexibility from imports/exports. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +399,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,21 +676,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -679,62 +698,62 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="6">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -746,43 +765,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK159"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A139" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="21.265625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -895,7 +914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1008,7 +1027,7 @@
         <v>412972.3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1121,7 +1140,7 @@
         <v>69383.25</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1234,7 +1253,7 @@
         <v>15337.38</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -1347,7 +1366,7 @@
         <v>12982.23</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -1460,7 +1479,7 @@
         <v>87001.64</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -1573,7 +1592,7 @@
         <v>4140.8100000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -1686,7 +1705,7 @@
         <v>128047.6</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1799,12 +1818,12 @@
         <v>2003.04</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -2030,7 +2049,7 @@
         <v>42768.25</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -2143,7 +2162,7 @@
         <v>185.58</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -2256,7 +2275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -2369,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -2482,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2708,7 +2727,7 @@
         <v>478.28</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -2821,12 +2840,12 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
@@ -2939,7 +2958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -3052,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -3165,7 +3184,7 @@
         <v>1127.44</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -3278,7 +3297,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -3391,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -3504,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -3617,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -3730,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -3843,12 +3862,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -3961,7 +3980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -4074,7 +4093,7 @@
         <v>1318.03</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -4187,7 +4206,7 @@
         <v>1351.35</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -4300,7 +4319,7 @@
         <v>188.86</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -4413,7 +4432,7 @@
         <v>108.38</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -4526,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -4639,7 +4658,7 @@
         <v>826.93</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -4752,7 +4771,7 @@
         <v>4477.63</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -4865,12 +4884,12 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -4983,7 +5002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
@@ -5096,7 +5115,7 @@
         <v>2612.42</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -5209,7 +5228,7 @@
         <v>1115.55</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -5322,7 +5341,7 @@
         <v>604.14</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -5435,7 +5454,7 @@
         <v>262.8</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -5548,7 +5567,7 @@
         <v>4817.12</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -5661,7 +5680,7 @@
         <v>49.46</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -5774,7 +5793,7 @@
         <v>178.66</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -5887,12 +5906,12 @@
         <v>102.78</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -6005,7 +6024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
@@ -6118,7 +6137,7 @@
         <v>205743.2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>51</v>
       </c>
@@ -6231,7 +6250,7 @@
         <v>21133.37</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
@@ -6344,7 +6363,7 @@
         <v>2462.33</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>53</v>
       </c>
@@ -6457,7 +6476,7 @@
         <v>2719.98</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
@@ -6570,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>55</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -6796,7 +6815,7 @@
         <v>100.25</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
@@ -6909,12 +6928,12 @@
         <v>148.58000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>13</v>
       </c>
@@ -7027,7 +7046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>50</v>
       </c>
@@ -7140,7 +7159,7 @@
         <v>38152.879999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>51</v>
       </c>
@@ -7253,7 +7272,7 @@
         <v>16297.6</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>52</v>
       </c>
@@ -7366,7 +7385,7 @@
         <v>1127.76</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>53</v>
       </c>
@@ -7479,7 +7498,7 @@
         <v>7617.82</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>54</v>
       </c>
@@ -7592,7 +7611,7 @@
         <v>82184.52</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
@@ -7705,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -7818,7 +7837,7 @@
         <v>37745.24</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>57</v>
       </c>
@@ -7931,12 +7950,12 @@
         <v>991.66</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>13</v>
       </c>
@@ -8049,7 +8068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>50</v>
       </c>
@@ -8162,7 +8181,7 @@
         <v>46266.96</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>51</v>
       </c>
@@ -8275,7 +8294,7 @@
         <v>1949.99</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>52</v>
       </c>
@@ -8388,7 +8407,7 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>53</v>
       </c>
@@ -8501,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>54</v>
       </c>
@@ -8614,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>55</v>
       </c>
@@ -8727,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -8840,7 +8859,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>57</v>
       </c>
@@ -8953,12 +8972,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>13</v>
       </c>
@@ -9071,7 +9090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>50</v>
       </c>
@@ -9184,7 +9203,7 @@
         <v>3134.94</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>51</v>
       </c>
@@ -9297,7 +9316,7 @@
         <v>19312.14</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>52</v>
       </c>
@@ -9410,7 +9429,7 @@
         <v>3126.31</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>53</v>
       </c>
@@ -9523,7 +9542,7 @@
         <v>1998.33</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>54</v>
       </c>
@@ -9636,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>55</v>
       </c>
@@ -9749,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>56</v>
       </c>
@@ -9862,7 +9881,7 @@
         <v>70491.009999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -9975,12 +9994,12 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>13</v>
       </c>
@@ -10093,7 +10112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>50</v>
       </c>
@@ -10206,7 +10225,7 @@
         <v>68360.490000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>51</v>
       </c>
@@ -10319,7 +10338,7 @@
         <v>1286.3499999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>52</v>
       </c>
@@ -10432,7 +10451,7 @@
         <v>7054.82</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>53</v>
       </c>
@@ -10545,7 +10564,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>54</v>
       </c>
@@ -10658,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>55</v>
       </c>
@@ -10771,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>56</v>
       </c>
@@ -10884,7 +10903,7 @@
         <v>645.91</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>57</v>
       </c>
@@ -10997,12 +11016,12 @@
         <v>97.13</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
@@ -11115,7 +11134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>50</v>
       </c>
@@ -11228,7 +11247,7 @@
         <v>3934.92</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>51</v>
       </c>
@@ -11341,7 +11360,7 @@
         <v>5535.87</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>52</v>
       </c>
@@ -11454,7 +11473,7 @@
         <v>573.79</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>53</v>
       </c>
@@ -11567,7 +11586,7 @@
         <v>204.57</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>54</v>
       </c>
@@ -11680,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>55</v>
       </c>
@@ -11793,7 +11812,7 @@
         <v>3264.42</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>56</v>
       </c>
@@ -11906,7 +11925,7 @@
         <v>13826.63</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
@@ -12019,12 +12038,12 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
@@ -12137,7 +12156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>50</v>
       </c>
@@ -12250,7 +12269,7 @@
         <v>378.56</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>51</v>
       </c>
@@ -12363,7 +12382,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -12476,7 +12495,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -12589,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -12702,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>55</v>
       </c>
@@ -12815,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>56</v>
       </c>
@@ -12928,7 +12947,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>57</v>
       </c>
@@ -13041,12 +13060,12 @@
         <v>94.08</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
         <v>13</v>
       </c>
@@ -13159,7 +13178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>50</v>
       </c>
@@ -13272,7 +13291,7 @@
         <v>301.67</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>51</v>
       </c>
@@ -13385,7 +13404,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>52</v>
       </c>
@@ -13498,7 +13517,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>53</v>
       </c>
@@ -13611,7 +13630,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>54</v>
       </c>
@@ -13724,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>55</v>
       </c>
@@ -13837,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>56</v>
       </c>
@@ -13950,7 +13969,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>57</v>
       </c>
@@ -14063,12 +14082,12 @@
         <v>216.74</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
         <v>13</v>
       </c>
@@ -14181,7 +14200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>50</v>
       </c>
@@ -14294,7 +14313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>51</v>
       </c>
@@ -14407,7 +14426,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>52</v>
       </c>
@@ -14520,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>53</v>
       </c>
@@ -14633,7 +14652,7 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>54</v>
       </c>
@@ -14746,7 +14765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>55</v>
       </c>
@@ -14859,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>56</v>
       </c>
@@ -14972,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>57</v>
       </c>
@@ -15091,23 +15110,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -15115,7 +15134,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -15123,7 +15142,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -15131,7 +15150,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -15139,7 +15158,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -15147,7 +15166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -15155,7 +15174,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -15163,7 +15182,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -15171,27 +15190,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -15202,30 +15221,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B800F7-42D5-46E7-9B60-15B1B1D57CFD}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="8">
-        <f>SUMPRODUCT('Canada Generation'!N9:N16,'Canada Flexibility Shares'!B2:B9)/SUM('Canada Generation'!N9:N16)</f>
-        <v>0.47663019637409143</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
+++ b/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
@@ -1,43 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\FoTCAMRBtPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\FoTCAMRBtPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262BBECA-DBAC-4DF4-936D-1C36E69BDFE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52320" yWindow="1350" windowWidth="13725" windowHeight="14475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Canada Generation" sheetId="2" r:id="rId2"/>
     <sheet name="Canada Flexibility Shares" sheetId="3" r:id="rId3"/>
-    <sheet name="Texas Notes" sheetId="5" r:id="rId4"/>
-    <sheet name="FoTCAMRBtPF" sheetId="4" r:id="rId5"/>
+    <sheet name="FoTCAMRBtPF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="85">
   <si>
     <t>FoTCAMRBtPF Fraction of Transmission Capacity Across Modeled Region Border that Provides Flexibility</t>
   </si>
@@ -293,20 +283,11 @@
   <si>
     <t>Transmission Capacity That Provides Flexibility (dimensionless)</t>
   </si>
-  <si>
-    <t>See EIaE (Electricity Imports and Exports) sheet for sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently, Texas imports/exports a neglibible amount of energy. ERCOT is its own asynchronous grid and it covers the majority of Texas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">So, in the ERCOT case, there is basically 0 flexibility from imports/exports. </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,7 +380,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,21 +657,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,62 +679,62 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -765,43 +746,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK159"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.265625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -914,7 +895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1027,7 +1008,7 @@
         <v>412972.3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1140,7 +1121,7 @@
         <v>69383.25</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1253,7 +1234,7 @@
         <v>15337.38</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -1366,7 +1347,7 @@
         <v>12982.23</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -1479,7 +1460,7 @@
         <v>87001.64</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -1592,7 +1573,7 @@
         <v>4140.8100000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -1705,7 +1686,7 @@
         <v>128047.6</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1818,12 +1799,12 @@
         <v>2003.04</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -2049,7 +2030,7 @@
         <v>42768.25</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -2162,7 +2143,7 @@
         <v>185.58</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -2275,7 +2256,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -2388,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -2501,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2614,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2727,7 +2708,7 @@
         <v>478.28</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -2840,12 +2821,12 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
@@ -2958,7 +2939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -3071,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -3184,7 +3165,7 @@
         <v>1127.44</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -3297,7 +3278,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -3410,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -3523,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -3636,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -3862,12 +3843,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -3980,7 +3961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -4093,7 +4074,7 @@
         <v>1318.03</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -4206,7 +4187,7 @@
         <v>1351.35</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -4319,7 +4300,7 @@
         <v>188.86</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -4432,7 +4413,7 @@
         <v>108.38</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -4545,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -4658,7 +4639,7 @@
         <v>826.93</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -4771,7 +4752,7 @@
         <v>4477.63</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -4884,12 +4865,12 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -5002,7 +4983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
@@ -5115,7 +5096,7 @@
         <v>2612.42</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -5228,7 +5209,7 @@
         <v>1115.55</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -5341,7 +5322,7 @@
         <v>604.14</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -5454,7 +5435,7 @@
         <v>262.8</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -5567,7 +5548,7 @@
         <v>4817.12</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -5680,7 +5661,7 @@
         <v>49.46</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -5793,7 +5774,7 @@
         <v>178.66</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -5906,12 +5887,12 @@
         <v>102.78</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -6024,7 +6005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
@@ -6137,7 +6118,7 @@
         <v>205743.2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>51</v>
       </c>
@@ -6250,7 +6231,7 @@
         <v>21133.37</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
@@ -6363,7 +6344,7 @@
         <v>2462.33</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>53</v>
       </c>
@@ -6476,7 +6457,7 @@
         <v>2719.98</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
@@ -6589,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>55</v>
       </c>
@@ -6702,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -6815,7 +6796,7 @@
         <v>100.25</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
@@ -6928,12 +6909,12 @@
         <v>148.58000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>13</v>
       </c>
@@ -7046,7 +7027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>50</v>
       </c>
@@ -7159,7 +7140,7 @@
         <v>38152.879999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>51</v>
       </c>
@@ -7272,7 +7253,7 @@
         <v>16297.6</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>52</v>
       </c>
@@ -7385,7 +7366,7 @@
         <v>1127.76</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>53</v>
       </c>
@@ -7498,7 +7479,7 @@
         <v>7617.82</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>54</v>
       </c>
@@ -7611,7 +7592,7 @@
         <v>82184.52</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
@@ -7724,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -7837,7 +7818,7 @@
         <v>37745.24</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>57</v>
       </c>
@@ -7950,12 +7931,12 @@
         <v>991.66</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>13</v>
       </c>
@@ -8068,7 +8049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>50</v>
       </c>
@@ -8181,7 +8162,7 @@
         <v>46266.96</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>51</v>
       </c>
@@ -8294,7 +8275,7 @@
         <v>1949.99</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>52</v>
       </c>
@@ -8407,7 +8388,7 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>53</v>
       </c>
@@ -8520,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>54</v>
       </c>
@@ -8633,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>55</v>
       </c>
@@ -8746,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -8859,7 +8840,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>57</v>
       </c>
@@ -8972,12 +8953,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>13</v>
       </c>
@@ -9090,7 +9071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>50</v>
       </c>
@@ -9203,7 +9184,7 @@
         <v>3134.94</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>51</v>
       </c>
@@ -9316,7 +9297,7 @@
         <v>19312.14</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>52</v>
       </c>
@@ -9429,7 +9410,7 @@
         <v>3126.31</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>53</v>
       </c>
@@ -9542,7 +9523,7 @@
         <v>1998.33</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>54</v>
       </c>
@@ -9655,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>55</v>
       </c>
@@ -9768,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>56</v>
       </c>
@@ -9881,7 +9862,7 @@
         <v>70491.009999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -9994,12 +9975,12 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>13</v>
       </c>
@@ -10112,7 +10093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>50</v>
       </c>
@@ -10225,7 +10206,7 @@
         <v>68360.490000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>51</v>
       </c>
@@ -10338,7 +10319,7 @@
         <v>1286.3499999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>52</v>
       </c>
@@ -10451,7 +10432,7 @@
         <v>7054.82</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>53</v>
       </c>
@@ -10564,7 +10545,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>54</v>
       </c>
@@ -10677,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>55</v>
       </c>
@@ -10790,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>56</v>
       </c>
@@ -10903,7 +10884,7 @@
         <v>645.91</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>57</v>
       </c>
@@ -11016,12 +10997,12 @@
         <v>97.13</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
@@ -11134,7 +11115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>50</v>
       </c>
@@ -11247,7 +11228,7 @@
         <v>3934.92</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>51</v>
       </c>
@@ -11360,7 +11341,7 @@
         <v>5535.87</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>52</v>
       </c>
@@ -11473,7 +11454,7 @@
         <v>573.79</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>53</v>
       </c>
@@ -11586,7 +11567,7 @@
         <v>204.57</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>54</v>
       </c>
@@ -11699,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>55</v>
       </c>
@@ -11812,7 +11793,7 @@
         <v>3264.42</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>56</v>
       </c>
@@ -11925,7 +11906,7 @@
         <v>13826.63</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
@@ -12038,12 +12019,12 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
@@ -12156,7 +12137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>50</v>
       </c>
@@ -12269,7 +12250,7 @@
         <v>378.56</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>51</v>
       </c>
@@ -12382,7 +12363,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -12495,7 +12476,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -12608,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -12721,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>55</v>
       </c>
@@ -12834,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>56</v>
       </c>
@@ -12947,7 +12928,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>57</v>
       </c>
@@ -13060,12 +13041,12 @@
         <v>94.08</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>13</v>
       </c>
@@ -13178,7 +13159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>50</v>
       </c>
@@ -13291,7 +13272,7 @@
         <v>301.67</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>51</v>
       </c>
@@ -13404,7 +13385,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>52</v>
       </c>
@@ -13517,7 +13498,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>53</v>
       </c>
@@ -13630,7 +13611,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>54</v>
       </c>
@@ -13743,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>55</v>
       </c>
@@ -13856,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>56</v>
       </c>
@@ -13969,7 +13950,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>57</v>
       </c>
@@ -14082,12 +14063,12 @@
         <v>216.74</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>13</v>
       </c>
@@ -14200,7 +14181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>50</v>
       </c>
@@ -14313,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>51</v>
       </c>
@@ -14426,7 +14407,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>52</v>
       </c>
@@ -14539,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>53</v>
       </c>
@@ -14652,7 +14633,7 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>54</v>
       </c>
@@ -14765,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>55</v>
       </c>
@@ -14878,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>56</v>
       </c>
@@ -14991,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>57</v>
       </c>
@@ -15110,23 +15091,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -15134,7 +15115,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -15142,7 +15123,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -15150,7 +15131,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -15158,7 +15139,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -15166,7 +15147,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -15174,7 +15155,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -15182,7 +15163,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -15190,27 +15171,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -15221,59 +15202,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B800F7-42D5-46E7-9B60-15B1B1D57CFD}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="8">
-        <v>0</v>
+        <f>SUMPRODUCT('Canada Generation'!N9:N16,'Canada Flexibility Shares'!B2:B9)/SUM('Canada Generation'!N9:N16)</f>
+        <v>0.47663019637409143</v>
       </c>
     </row>
   </sheetData>
